--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_20.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_20.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N478"/>
+  <dimension ref="A1:N479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.631115198135376</v>
+        <v>0.0007028579711914062</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008422136306762695</v>
+        <v>0.0005178451538085938</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01234579086303711</v>
+        <v>0.02018284797668457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 2), (4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (3, 2), (2, 2), (2, 0), (2, 4), (2, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [4, 2], [4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [3, 2], [2, 2], [2, 0], [2, 4], [2, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[(4, 3), (4, 2), (2, 4), (3, 3), (3, 4), (0, 4), (0, 0), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 3], [4, 2], [2, 4], [3, 3], [3, 4], [0, 4], [0, 0], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[(4, 3), (4, 2), (4, 4), (3, 3), (3, 4), (0, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[[4, 3], [4, 2], [4, 4], [3, 3], [3, 4], [0, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[(4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (3, 0), (3, 1)]</t>
+          <t>[[4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (3, 4), (2, 2), (3, 2), (4, 4), (2, 1), (4, 1), (3, 0), (3, 1)]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 2], [3, 2], [4, 4], [2, 1], [4, 1], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (0, 2), (0, 0), (1, 1), (0, 1), (1, 2), (2, 0), (2, 2), (0, 4), (2, 4), (1, 3), (3, 0), (1, 4), (0, 3), (4, 4), (2, 3), (4, 1), (3, 1), (3, 2)]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [0, 4], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [4, 4], [2, 3], [4, 1], [3, 1], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (0, 3), (2, 0), (1, 3), (2, 2), (3, 0), (2, 3), (2, 4), (3, 3), (3, 1), (3, 2), (3, 4), (1, 4), (2, 1), (0, 4), (1, 0), (1, 1), (1, 2)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [2, 0], [1, 3], [2, 2], [3, 0], [2, 3], [2, 4], [3, 3], [3, 1], [3, 2], [3, 4], [1, 4], [2, 1], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -4131,110 +4131,120 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>68</v>
+        <v>0.995802848518928</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>388</v>
+        <v>68</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>8</v>
+        <v>388</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.6896259784698486</v>
+        <v>8</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.07265186309814453</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B478" t="inlineStr">
+      <c r="B479" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr">
+      <c r="C479" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D478" t="inlineStr">
+      <c r="D479" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E478" t="inlineStr">
+      <c r="E479" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F478" t="inlineStr">
+      <c r="F479" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G478" t="inlineStr">
+      <c r="G479" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
+      <c r="H479" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I478" t="inlineStr">
+      <c r="I479" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J478" t="inlineStr">
+      <c r="J479" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K478" t="inlineStr">
+      <c r="K479" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L478" t="inlineStr">
+      <c r="L479" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M478" t="inlineStr">
+      <c r="M479" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N478" t="inlineStr">
+      <c r="N479" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_20.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_20.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N479"/>
+  <dimension ref="A1:N489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007028579711914062</v>
+        <v>0.000659942626953125</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005178451538085938</v>
+        <v>0.0003252029418945312</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02018284797668457</v>
+        <v>0.05508303642272949</v>
       </c>
     </row>
     <row r="8">
@@ -1817,11 +1817,6 @@
           <t>[11, 10]</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>[17, 2]</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -1864,11 +1859,6 @@
           <t>[17, 4]</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>[11, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1883,11 +1873,6 @@
           <t>[19, 2]</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>[11, 9]</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -1895,11 +1880,6 @@
           <t>[11, 10]</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>[17, 2]</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1942,11 +1922,6 @@
           <t>[17, 4]</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>[11, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -1961,776 +1936,751 @@
           <t>[19, 2]</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>[11, 9]</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[10, 9]</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[10, 9]</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[10, 8]</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>[16, 2]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[10, 8]</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[10, 8]</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>[16, 2]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[11, 7]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[10, 8]</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[11, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>[15, [1, 3], [4, 4]]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[13, [2, 1], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>[2, [4, 3], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>[8, [1, 0], [0, 1]]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[17, [4, 4], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>[6, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>[9, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>[18, [3, 2], [3, 0]]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[4, [2, 4], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>[19, [4, 1], [3, 1]]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[7, [2, 0], [0, 2]]</t>
+          <t>[11, [0, 0], [2, 1]]</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[3, [3, 3], [2, 3]]</t>
+          <t>[15, [1, 3], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[0, [3, 0], [4, 3]]</t>
+          <t>[13, [2, 1], [1, 3]]</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[14, [2, 2], [3, 4]]</t>
+          <t>[2, [4, 3], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>[8, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[16, [3, 4], [3, 2]]</t>
+          <t>[17, [4, 4], [4, 1]]</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[5, [2, 3], [2, 0]]</t>
+          <t>[6, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>[9, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>[18, [3, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[1, [4, 2], [3, 3]]</t>
+          <t>[4, [2, 4], [1, 2]]</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[12, [1, 1], [2, 2]]</t>
+          <t>[19, [4, 1], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[10, [0, 1], [1, 1]]</t>
+          <t>[7, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>[3, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[[4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 0], [3, 1]]</t>
+          <t>[0, [3, 0], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>[14, [2, 2], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[16, [3, 4], [3, 2]]</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
+          <t>[5, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[1, [4, 2], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[12, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[10, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[[4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>[9, 6]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>[9, 7]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>[15, 0]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>[9, 6]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>[9, 7]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
@@ -2740,850 +2690,850 @@
           <t>[8, 7]</t>
         </is>
       </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>[15, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>[14, 0]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[8, 7]</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>[14, 0]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[8, 6]</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[3, [2, 3], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>[2, [2, 4], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>[16, [3, 2], [2, 1]]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[11, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>[6, [1, 0], [0, 0]]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[0, [4, 3], [2, 4]]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[7, [0, 2], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>[1, [3, 3], [1, 4]]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[9, [0, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>[12, [2, 2], [3, 4]]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[13, [1, 3], [2, 2]]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[14, [3, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>[5, [2, 0], [1, 0]]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[8, [0, 1], [1, 2]]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[10, [1, 1], [0, 4]]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[4, [1, 2], [1, 1]]</t>
+          <t>[3, [2, 3], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>[2, [2, 4], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>[16, [3, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 2], [3, 2], [4, 4], [2, 1], [4, 1], [3, 0], [3, 1]]</t>
+          <t>[11, [2, 1], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>[6, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[0, [4, 3], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>[7, [0, 2], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>[1, [3, 3], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[9, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>[12, [2, 2], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[13, [1, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[14, [3, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>[5, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[8, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[10, [1, 1], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[4, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 2], [3, 2], [4, 4], [2, 1], [4, 1], [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>[19, [3, 1], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>[18, [3, 0], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>[5, [1, 0], [0, 1]]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[16, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>[6, [0, 0], [1, 2]]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[7, [0, 1], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>[10, [0, 4], [2, 4]]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[14, [3, 2], [0, 3]]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[1, [1, 4], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>[12, [3, 4], [3, 0]]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[9, [1, 3], [0, 4]]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[3, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>[2, [0, 3], [0, 2]]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[11, [2, 3], [1, 3]]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[0, [2, 4], [2, 1]]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[8, [1, 2], [2, 2]]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [0, 4], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [4, 4], [2, 3], [4, 1], [3, 1], [3, 2]]</t>
+          <t>[13, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>[19, [3, 1], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>[18, [3, 0], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>[5, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[16, [2, 1], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>[6, [0, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[7, [0, 1], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>[10, [0, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[14, [3, 2], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[1, [1, 4], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>[12, [3, 4], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[9, 10]</t>
+          <t>[9, [1, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[3, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>[2, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[11, [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[0, [2, 4], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[8, [1, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [0, 4], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [4, 4], [2, 3], [4, 1], [3, 1], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
@@ -3597,654 +3547,724 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[8, 11]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[11, 8]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[8, 11]</t>
+          <t>[9, 10]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>[7, 12]</t>
+          <t>[8, 11]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[11, 8]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[7, 12]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[6, 13]</t>
+          <t>[8, 11]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[7, 12]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>[6, 13]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>[5, 14]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[7, 12]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[6, 13]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>[19, [3, 2], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>[1, [1, 0], [0, 1]]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>[5, [0, 1], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>[7, [2, 0], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>[14, [0, 3], [1, 4]]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[17, [4, 1], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>[16, [2, 3], [0, 4]]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>[12, [3, 0], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>[9, [0, 4], [2, 4]]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>[18, [3, 1], [1, 1]]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>[0, [2, 1], [0, 2]]</t>
+          <t>[6, 13]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[11, [1, 3], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>[13, [1, 4], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>[2, [0, 2], [0, 0]]</t>
+          <t>[5, 14]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>[10, [2, 4], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>[6, [1, 2], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>[4, [1, 1], [2, 0]]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>[3, [0, 0], [0, 3]]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>[15, [4, 4], [2, 1]]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[8, [2, 2], [2, 3]]</t>
+          <t>[19, [3, 2], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>[1, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [2, 0], [1, 3], [2, 2], [3, 0], [2, 3], [2, 4], [3, 3], [3, 1], [3, 2], [3, 4], [1, 4], [2, 1], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
+          <t>[5, [0, 1], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>[7, [2, 0], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>[14, [0, 3], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[17, [4, 1], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>[16, [2, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[12, [3, 0], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>[9, [0, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[5, 14]</t>
+          <t>[18, [3, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[4, 15]</t>
+          <t>[0, [2, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[11, [1, 3], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>[13, [1, 4], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>[2, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[10, [2, 4], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>[6, [1, 2], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>[4, [1, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[3, [0, 0], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[15, [4, 4], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>[4, 15]</t>
+          <t>[8, [2, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [2, 0], [1, 3], [2, 2], [3, 0], [2, 3], [2, 4], [3, 3], [3, 1], [3, 2], [3, 4], [1, 4], [2, 1], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[5, 14]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[4, 15]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[2, 17]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[2, 17]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>[1, 18]</t>
+          <t>[4, 15]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[0, 19]</t>
+          <t>[3, 16]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>[1, 18]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[0, 19]</t>
+          <t>[3, 16]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B472" t="n">
-        <v>0.1176263936908758</v>
+          <t>[2, 17]</t>
+        </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B473" t="n">
-        <v>127649.5273493615</v>
+          <t>[1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B474" t="n">
-        <v>0.995802848518928</v>
+          <t>[17, 2]</t>
+        </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B475" t="n">
-        <v>68</v>
+          <t>[2, 17]</t>
+        </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B476" t="n">
-        <v>388</v>
+          <t>[1, 18]</t>
+        </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B477" t="n">
-        <v>8</v>
+          <t>[0, 19]</t>
+        </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B478" t="n">
-        <v>0.07265186309814453</v>
+          <t>[18, 1]</t>
+        </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
+          <t>[19, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>[1, 18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>[0, 19]</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.1176232570288664</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>127689.5273493615</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.995802848518928</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.1023461818695068</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr">
+      <c r="B489" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr">
+      <c r="C489" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D479" t="inlineStr">
+      <c r="D489" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E479" t="inlineStr">
+      <c r="E489" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F479" t="inlineStr">
+      <c r="F489" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G479" t="inlineStr">
+      <c r="G489" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
+      <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I479" t="inlineStr">
+      <c r="I489" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J479" t="inlineStr">
+      <c r="J489" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K479" t="inlineStr">
+      <c r="K489" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L479" t="inlineStr">
+      <c r="L489" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M479" t="inlineStr">
+      <c r="M489" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N479" t="inlineStr">
+      <c r="N489" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
